--- a/Docs/GraduateSchool/Grad seminar attendance sheet.xlsx
+++ b/Docs/GraduateSchool/Grad seminar attendance sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lex/TTU/Docs/GraduateSchool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Seagate HD/Repository/TTUDoc/Docs/GraduateSchool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2314C0F9-9A3F-A54F-84B5-3DAED9E75CB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673A9C17-C115-BD4D-A44C-AC02827FD9D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32380" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="7760" windowWidth="32380" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Seminar</t>
   </si>
@@ -73,16 +73,41 @@
   </si>
   <si>
     <t>New Security Frontier: Additive Manufacturing in Crosshair</t>
+  </si>
+  <si>
+    <t>Dr.Rajeev</t>
+  </si>
+  <si>
+    <t>Formal Verification for Safe Autonomy</t>
+  </si>
+  <si>
+    <t>From XOR PUF to CDC XOR PUF: Cost-Effectiveness, Statistical Characteristics, and Security Assessment</t>
+  </si>
+  <si>
+    <t>Khalid Mursi</t>
+  </si>
+  <si>
+    <t>Dr.Qi Han</t>
+  </si>
+  <si>
+    <t>Mobile Visual Crowdsensing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,10 +148,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -418,7 +444,7 @@
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="49.1640625" customWidth="1"/>
+    <col min="4" max="4" width="79.6640625" customWidth="1"/>
     <col min="5" max="5" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -514,24 +540,48 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="B9" s="2">
+        <v>44229</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="2">
+        <v>44236</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="2">
+        <v>44243</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>

--- a/Docs/GraduateSchool/Grad seminar attendance sheet.xlsx
+++ b/Docs/GraduateSchool/Grad seminar attendance sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Seagate HD/Repository/TTUDoc/Docs/GraduateSchool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LexZh/Documents/TTUDoc/Docs/GraduateSchool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673A9C17-C115-BD4D-A44C-AC02827FD9D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B44105-D14F-7F43-A77A-C9AC947DB8CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="7760" windowWidth="32380" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40080" yWindow="500" windowWidth="32380" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Seminar</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>Mobile Visual Crowdsensing</t>
+  </si>
+  <si>
+    <t>Can We Achieve Fresh Information with Selfish Users in Mobile Crowd-Learning?</t>
+  </si>
+  <si>
+    <t>Dr. Jia (Kevin) Liu</t>
   </si>
 </sst>
 </file>
@@ -436,7 +442,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -585,10 +591,18 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="2">
+        <v>44257</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>

--- a/Docs/GraduateSchool/Grad seminar attendance sheet.xlsx
+++ b/Docs/GraduateSchool/Grad seminar attendance sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LexZh/Documents/TTUDoc/Docs/GraduateSchool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B44105-D14F-7F43-A77A-C9AC947DB8CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F737E1C4-DCAE-E145-9E84-4432AE47A06D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40080" yWindow="500" windowWidth="32380" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Seminar</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Dr. Jia (Kevin) Liu</t>
+  </si>
+  <si>
+    <t>Smart Healthcare - Demystified</t>
+  </si>
+  <si>
+    <t>Dr.Saraju P.Mohanty</t>
   </si>
 </sst>
 </file>
@@ -442,7 +448,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -606,10 +612,18 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="B13" s="2">
+        <v>44271</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>

--- a/Docs/GraduateSchool/Grad seminar attendance sheet.xlsx
+++ b/Docs/GraduateSchool/Grad seminar attendance sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10314"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LexZh/Documents/TTUDoc/Docs/GraduateSchool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F737E1C4-DCAE-E145-9E84-4432AE47A06D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6880E806-AA53-054B-A4D4-A2FFE76439DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40080" yWindow="500" windowWidth="32380" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="500" windowWidth="32380" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Seminar</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>Dr.Saraju P.Mohanty</t>
+  </si>
+  <si>
+    <t>Drone Helps Privacy: Sky Caching Assisted k-Anonymity in Spatial Querying</t>
+  </si>
+  <si>
+    <t>Hema Naga Sai Sudha agarlapudi</t>
   </si>
 </sst>
 </file>
@@ -448,7 +454,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -627,10 +633,18 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="B14" s="2">
+        <v>44278</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>

--- a/Docs/GraduateSchool/Grad seminar attendance sheet.xlsx
+++ b/Docs/GraduateSchool/Grad seminar attendance sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LexZh/Documents/TTUDoc/Docs/GraduateSchool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6880E806-AA53-054B-A4D4-A2FFE76439DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8365A75-C7AE-5546-A99C-8D41BD576B0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="500" windowWidth="32380" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40120" yWindow="500" windowWidth="32380" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Seminar</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Hema Naga Sai Sudha agarlapudi</t>
+  </si>
+  <si>
+    <t>Medical Device Security: Automated Detection, Assessment, and Mitigation</t>
+  </si>
+  <si>
+    <t>Dr.Roman Lysecky</t>
   </si>
 </sst>
 </file>
@@ -454,7 +460,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -648,10 +654,18 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="B15" s="2">
+        <v>44313</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
